--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D37D16-BAC2-4CCB-8BEB-6846D00B9EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071F88C-F477-4E8C-86E5-A4C93A5CEF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="302">
   <si>
     <t>type</t>
   </si>
@@ -318,9 +318,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>gw_oncho_202302_prestop_3_rdtov16</t>
-  </si>
-  <si>
     <t>Portugese</t>
   </si>
   <si>
@@ -921,7 +918,16 @@
     <t>${d_Cluster_Name} = 'Other'</t>
   </si>
   <si>
-    <t>(Fev 2023) ONCHO PreStop - 3. RDT OV16 Form</t>
+    <t>(Fev 2023) ONCHO PreStop - 3. RDT OV16 Form V1</t>
+  </si>
+  <si>
+    <t>gw_oncho_202302_prestop_3_rdtov16_v1</t>
+  </si>
+  <si>
+    <t>Sele Sele</t>
+  </si>
+  <si>
+    <t>Ga Guiro</t>
   </si>
 </sst>
 </file>
@@ -1539,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -1554,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>7</v>
@@ -1586,10 +1592,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="10" t="s">
@@ -1599,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="5"/>
@@ -1621,7 +1627,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="5"/>
@@ -1648,7 +1654,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10"/>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="10"/>
@@ -1706,7 +1712,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="10"/>
@@ -1714,7 +1720,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="38"/>
       <c r="K6" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
@@ -1730,14 +1736,14 @@
         <v>37</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="10"/>
@@ -1745,7 +1751,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="38"/>
       <c r="K7" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
@@ -1759,14 +1765,14 @@
         <v>37</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="10"/>
@@ -1774,7 +1780,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="38"/>
       <c r="K8" s="40" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
@@ -1782,7 +1788,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="41" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
@@ -1797,7 +1803,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="10"/>
@@ -1824,7 +1830,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="5"/>
@@ -1844,14 +1850,14 @@
         <v>34</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="5"/>
@@ -1878,7 +1884,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="5"/>
@@ -1889,10 +1895,10 @@
         <v>43</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30" t="s">
@@ -1913,7 +1919,7 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="5"/>
@@ -1924,10 +1930,10 @@
         <v>47</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30" t="s">
@@ -1948,7 +1954,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="5"/>
@@ -1956,7 +1962,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="39"/>
       <c r="K14" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>50</v>
@@ -1971,17 +1977,17 @@
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1">
       <c r="A15" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>258</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="5"/>
@@ -1989,7 +1995,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="39"/>
       <c r="K15" s="34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30" t="s">
@@ -2010,7 +2016,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="10"/>
@@ -2037,7 +2043,7 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="10"/>
@@ -2066,7 +2072,7 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="10"/>
@@ -2095,7 +2101,7 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="10"/>
@@ -2152,7 +2158,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="E27" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2163,11 +2169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2191,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>68</v>
@@ -2208,13 +2214,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2222,13 +2228,13 @@
         <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2236,13 +2242,13 @@
         <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2250,13 +2256,13 @@
         <v>75</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2264,13 +2270,13 @@
         <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2306,13 +2312,13 @@
         <v>80</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2320,13 +2326,13 @@
         <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5">
@@ -2334,13 +2340,13 @@
         <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2348,13 +2354,13 @@
         <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2362,13 +2368,13 @@
         <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2376,13 +2382,13 @@
         <v>85</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2390,13 +2396,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2404,13 +2410,13 @@
         <v>85</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2418,13 +2424,13 @@
         <v>85</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2432,13 +2438,13 @@
         <v>85</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2452,7 +2458,7 @@
         <v>93</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2465,13 +2471,13 @@
         <v>68</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
@@ -2481,13 +2487,13 @@
         <v>68</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
@@ -2505,16 +2511,16 @@
         <v>69</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -2523,16 +2529,16 @@
         <v>69</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -2541,16 +2547,16 @@
         <v>69</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -2559,16 +2565,16 @@
         <v>69</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" s="6"/>
     </row>
@@ -2577,16 +2583,16 @@
         <v>69</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -2595,16 +2601,16 @@
         <v>69</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -2613,16 +2619,16 @@
         <v>69</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="6"/>
     </row>
@@ -2631,16 +2637,16 @@
         <v>69</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -2649,16 +2655,16 @@
         <v>69</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="6"/>
     </row>
@@ -2667,16 +2673,16 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -2685,16 +2691,16 @@
         <v>69</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -2703,16 +2709,16 @@
         <v>69</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2720,16 +2726,16 @@
         <v>69</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2737,16 +2743,16 @@
         <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2754,16 +2760,16 @@
         <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2771,16 +2777,16 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2788,16 +2794,16 @@
         <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2805,16 +2811,16 @@
         <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2822,16 +2828,16 @@
         <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2839,16 +2845,16 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2856,16 +2862,16 @@
         <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2873,16 +2879,16 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2890,16 +2896,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2907,16 +2913,16 @@
         <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2924,16 +2930,16 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2941,16 +2947,16 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2958,16 +2964,16 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2975,16 +2981,16 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2992,16 +2998,16 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3009,16 +3015,16 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3026,16 +3032,16 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3043,16 +3049,16 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3060,16 +3066,16 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3077,16 +3083,16 @@
         <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3094,16 +3100,16 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3111,16 +3117,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3128,16 +3134,16 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3145,16 +3151,16 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3162,16 +3168,16 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3179,16 +3185,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3196,16 +3202,16 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="F65" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3213,16 +3219,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3230,16 +3236,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3247,16 +3253,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3264,16 +3270,16 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3281,16 +3287,16 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3298,16 +3304,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3315,16 +3321,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3332,16 +3338,16 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3349,16 +3355,16 @@
         <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3366,16 +3372,16 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3383,16 +3389,16 @@
         <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3400,16 +3406,16 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3417,16 +3423,16 @@
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3434,16 +3440,16 @@
         <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3451,16 +3457,16 @@
         <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3468,16 +3474,16 @@
         <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3485,16 +3491,16 @@
         <v>70</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3502,16 +3508,16 @@
         <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3519,16 +3525,16 @@
         <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3536,16 +3542,16 @@
         <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3553,13 +3559,13 @@
         <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
         <v>127</v>
@@ -3570,13 +3576,13 @@
         <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
         <v>127</v>
@@ -3587,13 +3593,13 @@
         <v>70</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F88" t="s">
         <v>127</v>
@@ -3604,16 +3610,16 @@
         <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3621,16 +3627,16 @@
         <v>70</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3638,16 +3644,16 @@
         <v>70</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3655,16 +3661,16 @@
         <v>70</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="F92" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3672,16 +3678,16 @@
         <v>70</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="F93" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3689,16 +3695,16 @@
         <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3706,16 +3712,16 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3723,16 +3729,16 @@
         <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="F96" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3740,16 +3746,16 @@
         <v>70</v>
       </c>
       <c r="B97" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3757,16 +3763,16 @@
         <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3774,16 +3780,16 @@
         <v>70</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3791,16 +3797,16 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3808,16 +3814,16 @@
         <v>70</v>
       </c>
       <c r="B101" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3825,16 +3831,16 @@
         <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C102" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3842,16 +3848,16 @@
         <v>70</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3859,16 +3865,16 @@
         <v>70</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C104" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3876,16 +3882,16 @@
         <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3893,16 +3899,16 @@
         <v>70</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3910,16 +3916,16 @@
         <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3927,13 +3933,13 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F108" t="s">
         <v>129</v>
@@ -3944,13 +3950,13 @@
         <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
         <v>129</v>
@@ -3961,13 +3967,13 @@
         <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
         <v>129</v>
@@ -3978,16 +3984,16 @@
         <v>70</v>
       </c>
       <c r="B111" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C111" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="D111" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3995,13 +4001,13 @@
         <v>70</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
         <v>130</v>
@@ -4012,13 +4018,13 @@
         <v>70</v>
       </c>
       <c r="B113" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
         <v>130</v>
@@ -4029,16 +4035,16 @@
         <v>70</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4046,16 +4052,16 @@
         <v>70</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4063,16 +4069,16 @@
         <v>70</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4080,16 +4086,16 @@
         <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D117" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4097,16 +4103,16 @@
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C118" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4114,16 +4120,16 @@
         <v>70</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D119" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4131,16 +4137,16 @@
         <v>70</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D120" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4148,16 +4154,16 @@
         <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C121" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D121" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4165,16 +4171,16 @@
         <v>70</v>
       </c>
       <c r="B122" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D122" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4182,16 +4188,16 @@
         <v>70</v>
       </c>
       <c r="B123" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C123" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D123" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4199,16 +4205,16 @@
         <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D124" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4216,16 +4222,16 @@
         <v>70</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C125" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D125" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4233,16 +4239,16 @@
         <v>70</v>
       </c>
       <c r="B126" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="D126" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="F126" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4250,16 +4256,16 @@
         <v>70</v>
       </c>
       <c r="B127" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C127" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F127" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4267,16 +4273,16 @@
         <v>70</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4284,16 +4290,16 @@
         <v>70</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D129" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4301,16 +4307,16 @@
         <v>70</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C130" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D130" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4318,16 +4324,16 @@
         <v>70</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D131" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F131" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4335,16 +4341,16 @@
         <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C132" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D132" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F132" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4352,16 +4358,16 @@
         <v>70</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D133" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4369,16 +4375,16 @@
         <v>70</v>
       </c>
       <c r="B134" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C134" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F134" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4386,16 +4392,16 @@
         <v>70</v>
       </c>
       <c r="B135" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C135" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F135" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4403,16 +4409,16 @@
         <v>70</v>
       </c>
       <c r="B136" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D136" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F136" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4420,16 +4426,16 @@
         <v>70</v>
       </c>
       <c r="B137" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D137" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F137" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4437,16 +4443,16 @@
         <v>70</v>
       </c>
       <c r="B138" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D138" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F138" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4454,16 +4460,16 @@
         <v>70</v>
       </c>
       <c r="B139" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C139" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4471,16 +4477,16 @@
         <v>70</v>
       </c>
       <c r="B140" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C140" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D140" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F140" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4488,16 +4494,16 @@
         <v>70</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C141" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F141" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4505,13 +4511,13 @@
         <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F142" t="s">
         <v>134</v>
@@ -4522,16 +4528,16 @@
         <v>70</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C143" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D143" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4539,16 +4545,16 @@
         <v>70</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="D144" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="F144" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4556,16 +4562,16 @@
         <v>70</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="F145" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4573,16 +4579,16 @@
         <v>70</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="D146" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="F146" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4590,16 +4596,16 @@
         <v>70</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="D147" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="F147" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4607,16 +4613,16 @@
         <v>70</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="D148" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="F148" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4624,13 +4630,13 @@
         <v>70</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F149" t="s">
         <v>135</v>
@@ -4641,13 +4647,13 @@
         <v>70</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D150" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F150" t="s">
         <v>135</v>
@@ -4658,13 +4664,13 @@
         <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="F151" t="s">
         <v>135</v>
@@ -4675,13 +4681,13 @@
         <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D152" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F152" t="s">
         <v>135</v>
@@ -4692,13 +4698,13 @@
         <v>70</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D153" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F153" t="s">
         <v>135</v>
@@ -4709,13 +4715,13 @@
         <v>70</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C154" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D154" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F154" t="s">
         <v>135</v>
@@ -4726,16 +4732,16 @@
         <v>70</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="D155" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="F155" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4743,13 +4749,13 @@
         <v>70</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D156" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F156" t="s">
         <v>136</v>
@@ -4760,13 +4766,13 @@
         <v>70</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C157" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D157" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
         <v>136</v>
@@ -4777,13 +4783,13 @@
         <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C158" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D158" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F158" t="s">
         <v>136</v>
@@ -4794,16 +4800,16 @@
         <v>70</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="D159" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="F159" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4811,16 +4817,16 @@
         <v>70</v>
       </c>
       <c r="B160" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="D160" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="F160" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4828,16 +4834,16 @@
         <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="D161" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="F161" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4845,16 +4851,16 @@
         <v>70</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="D162" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="F162" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4862,16 +4868,16 @@
         <v>70</v>
       </c>
       <c r="B163" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D163" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="F163" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4879,16 +4885,16 @@
         <v>70</v>
       </c>
       <c r="B164" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="D164" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="F164" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4902,10 +4908,10 @@
         <v>92</v>
       </c>
       <c r="D165" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F165" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4919,10 +4925,10 @@
         <v>92</v>
       </c>
       <c r="D166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F166" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4936,10 +4942,10 @@
         <v>92</v>
       </c>
       <c r="D167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F167" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4953,10 +4959,10 @@
         <v>92</v>
       </c>
       <c r="D168" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F168" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4970,10 +4976,10 @@
         <v>92</v>
       </c>
       <c r="D169" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F169" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4987,10 +4993,10 @@
         <v>92</v>
       </c>
       <c r="D170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F170" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5004,10 +5010,10 @@
         <v>92</v>
       </c>
       <c r="D171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F171" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5021,10 +5027,10 @@
         <v>92</v>
       </c>
       <c r="D172" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F172" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5038,10 +5044,10 @@
         <v>92</v>
       </c>
       <c r="D173" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F173" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5055,10 +5061,10 @@
         <v>92</v>
       </c>
       <c r="D174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F174" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5072,10 +5078,10 @@
         <v>92</v>
       </c>
       <c r="D175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F175" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5089,10 +5095,10 @@
         <v>92</v>
       </c>
       <c r="D176" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F176" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5106,10 +5112,10 @@
         <v>92</v>
       </c>
       <c r="D177" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F177" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5123,10 +5129,10 @@
         <v>92</v>
       </c>
       <c r="D178" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F178" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5140,10 +5146,10 @@
         <v>92</v>
       </c>
       <c r="D179" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F179" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5157,10 +5163,10 @@
         <v>92</v>
       </c>
       <c r="D180" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F180" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5174,10 +5180,10 @@
         <v>92</v>
       </c>
       <c r="D181" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F181" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5191,10 +5197,10 @@
         <v>92</v>
       </c>
       <c r="D182" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F182" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5208,44 +5214,44 @@
         <v>92</v>
       </c>
       <c r="D183" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F183" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" t="s">
+        <v>92</v>
+      </c>
+      <c r="D184" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>94</v>
-      </c>
-      <c r="B185">
-        <v>101</v>
-      </c>
-      <c r="C185">
-        <v>101</v>
-      </c>
-      <c r="D185">
-        <v>101</v>
-      </c>
-      <c r="G185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" t="s">
-        <v>94</v>
-      </c>
-      <c r="B186">
-        <v>102</v>
-      </c>
-      <c r="C186">
-        <v>102</v>
-      </c>
-      <c r="D186">
-        <v>102</v>
-      </c>
-      <c r="G186" t="s">
-        <v>139</v>
+        <v>70</v>
+      </c>
+      <c r="B185" t="s">
+        <v>92</v>
+      </c>
+      <c r="C185" t="s">
+        <v>92</v>
+      </c>
+      <c r="D185" t="s">
+        <v>254</v>
+      </c>
+      <c r="F185" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5253,16 +5259,16 @@
         <v>94</v>
       </c>
       <c r="B187">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C187">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D187">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G187" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5270,16 +5276,16 @@
         <v>94</v>
       </c>
       <c r="B188">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C188">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D188">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G188" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5287,16 +5293,16 @@
         <v>94</v>
       </c>
       <c r="B189">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C189">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D189">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G189" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5304,16 +5310,16 @@
         <v>94</v>
       </c>
       <c r="B190">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C190">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D190">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G190" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5321,16 +5327,16 @@
         <v>94</v>
       </c>
       <c r="B191">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C191">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D191">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G191" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5338,16 +5344,16 @@
         <v>94</v>
       </c>
       <c r="B192">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C192">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D192">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G192" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5355,16 +5361,16 @@
         <v>94</v>
       </c>
       <c r="B193">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C193">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D193">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G193" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5372,16 +5378,16 @@
         <v>94</v>
       </c>
       <c r="B194">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C194">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D194">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G194" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5389,16 +5395,16 @@
         <v>94</v>
       </c>
       <c r="B195">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C195">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D195">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G195" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5406,16 +5412,16 @@
         <v>94</v>
       </c>
       <c r="B196">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C196">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D196">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G196" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5423,16 +5429,16 @@
         <v>94</v>
       </c>
       <c r="B197">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C197">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D197">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G197" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5440,16 +5446,16 @@
         <v>94</v>
       </c>
       <c r="B198">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C198">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D198">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G198" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5457,16 +5463,16 @@
         <v>94</v>
       </c>
       <c r="B199">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C199">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D199">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G199" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5474,16 +5480,16 @@
         <v>94</v>
       </c>
       <c r="B200">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C200">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D200">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G200" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5491,16 +5497,16 @@
         <v>94</v>
       </c>
       <c r="B201">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C201">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D201">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G201" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5508,16 +5514,16 @@
         <v>94</v>
       </c>
       <c r="B202">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C202">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D202">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G202" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5525,16 +5531,16 @@
         <v>94</v>
       </c>
       <c r="B203">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C203">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D203">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G203" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5542,16 +5548,16 @@
         <v>94</v>
       </c>
       <c r="B204">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C204">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D204">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G204" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5559,16 +5565,16 @@
         <v>94</v>
       </c>
       <c r="B205">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C205">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D205">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G205" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5576,16 +5582,16 @@
         <v>94</v>
       </c>
       <c r="B206">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C206">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D206">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G206" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5593,16 +5599,16 @@
         <v>94</v>
       </c>
       <c r="B207">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C207">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D207">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G207" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5610,16 +5616,16 @@
         <v>94</v>
       </c>
       <c r="B208">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C208">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D208">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G208" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5627,16 +5633,16 @@
         <v>94</v>
       </c>
       <c r="B209">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C209">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D209">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G209" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5644,16 +5650,16 @@
         <v>94</v>
       </c>
       <c r="B210">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C210">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D210">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G210" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5661,16 +5667,16 @@
         <v>94</v>
       </c>
       <c r="B211">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C211">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D211">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G211" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5678,16 +5684,16 @@
         <v>94</v>
       </c>
       <c r="B212">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C212">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D212">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5695,16 +5701,16 @@
         <v>94</v>
       </c>
       <c r="B213">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C213">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D213">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G213" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5712,16 +5718,16 @@
         <v>94</v>
       </c>
       <c r="B214">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C214">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D214">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G214" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5729,16 +5735,16 @@
         <v>94</v>
       </c>
       <c r="B215">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C215">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D215">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G215" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5746,16 +5752,16 @@
         <v>94</v>
       </c>
       <c r="B216">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C216">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D216">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G216" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5763,16 +5769,16 @@
         <v>94</v>
       </c>
       <c r="B217">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C217">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D217">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G217" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5780,16 +5786,16 @@
         <v>94</v>
       </c>
       <c r="B218">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C218">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D218">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G218" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5797,16 +5803,16 @@
         <v>94</v>
       </c>
       <c r="B219">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C219">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D219">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G219" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5814,16 +5820,16 @@
         <v>94</v>
       </c>
       <c r="B220">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C220">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D220">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G220" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5831,16 +5837,16 @@
         <v>94</v>
       </c>
       <c r="B221">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C221">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D221">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G221" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5848,16 +5854,16 @@
         <v>94</v>
       </c>
       <c r="B222">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C222">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D222">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G222" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5865,16 +5871,16 @@
         <v>94</v>
       </c>
       <c r="B223">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C223">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D223">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G223" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5882,16 +5888,16 @@
         <v>94</v>
       </c>
       <c r="B224">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C224">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D224">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G224" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5899,16 +5905,16 @@
         <v>94</v>
       </c>
       <c r="B225">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C225">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D225">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G225" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5916,16 +5922,16 @@
         <v>94</v>
       </c>
       <c r="B226">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C226">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D226">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G226" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5933,16 +5939,16 @@
         <v>94</v>
       </c>
       <c r="B227">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C227">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D227">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G227" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5950,16 +5956,16 @@
         <v>94</v>
       </c>
       <c r="B228">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C228">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D228">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G228" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5967,16 +5973,16 @@
         <v>94</v>
       </c>
       <c r="B229">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C229">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D229">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G229" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5984,16 +5990,16 @@
         <v>94</v>
       </c>
       <c r="B230">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C230">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D230">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G230" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6001,16 +6007,16 @@
         <v>94</v>
       </c>
       <c r="B231">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C231">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D231">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G231" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6018,16 +6024,16 @@
         <v>94</v>
       </c>
       <c r="B232">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C232">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D232">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G232" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6035,16 +6041,16 @@
         <v>94</v>
       </c>
       <c r="B233">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C233">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D233">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G233" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6052,16 +6058,16 @@
         <v>94</v>
       </c>
       <c r="B234">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C234">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D234">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G234" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6069,16 +6075,16 @@
         <v>94</v>
       </c>
       <c r="B235">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C235">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D235">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G235" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6086,16 +6092,16 @@
         <v>94</v>
       </c>
       <c r="B236">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C236">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D236">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G236" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6103,16 +6109,16 @@
         <v>94</v>
       </c>
       <c r="B237">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C237">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D237">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G237" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6120,16 +6126,16 @@
         <v>94</v>
       </c>
       <c r="B238">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C238">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D238">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G238" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6137,16 +6143,16 @@
         <v>94</v>
       </c>
       <c r="B239">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C239">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D239">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G239" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6154,16 +6160,16 @@
         <v>94</v>
       </c>
       <c r="B240">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C240">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D240">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G240" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6171,16 +6177,16 @@
         <v>94</v>
       </c>
       <c r="B241">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C241">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D241">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G241" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6188,16 +6194,16 @@
         <v>94</v>
       </c>
       <c r="B242">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C242">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D242">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G242" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6205,16 +6211,16 @@
         <v>94</v>
       </c>
       <c r="B243">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C243">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D243">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G243" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6222,16 +6228,16 @@
         <v>94</v>
       </c>
       <c r="B244">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C244">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D244">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6239,16 +6245,16 @@
         <v>94</v>
       </c>
       <c r="B245">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C245">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D245">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G245" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6256,16 +6262,16 @@
         <v>94</v>
       </c>
       <c r="B246">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C246">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D246">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G246" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6273,16 +6279,16 @@
         <v>94</v>
       </c>
       <c r="B247">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C247">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D247">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G247" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6290,16 +6296,16 @@
         <v>94</v>
       </c>
       <c r="B248">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C248">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D248">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G248" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6307,16 +6313,16 @@
         <v>94</v>
       </c>
       <c r="B249">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C249">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D249">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G249" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6324,16 +6330,16 @@
         <v>94</v>
       </c>
       <c r="B250">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C250">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D250">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G250" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6341,16 +6347,16 @@
         <v>94</v>
       </c>
       <c r="B251">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C251">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D251">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G251" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6358,16 +6364,16 @@
         <v>94</v>
       </c>
       <c r="B252">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C252">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D252">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G252" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6375,16 +6381,16 @@
         <v>94</v>
       </c>
       <c r="B253">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C253">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D253">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G253" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6392,16 +6398,16 @@
         <v>94</v>
       </c>
       <c r="B254">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C254">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D254">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G254" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6409,16 +6415,16 @@
         <v>94</v>
       </c>
       <c r="B255">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C255">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D255">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G255" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6426,16 +6432,16 @@
         <v>94</v>
       </c>
       <c r="B256">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C256">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D256">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G256" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6443,16 +6449,16 @@
         <v>94</v>
       </c>
       <c r="B257">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C257">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D257">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G257" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6460,16 +6466,16 @@
         <v>94</v>
       </c>
       <c r="B258">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C258">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D258">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G258" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6477,16 +6483,16 @@
         <v>94</v>
       </c>
       <c r="B259">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C259">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D259">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G259" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6494,16 +6500,16 @@
         <v>94</v>
       </c>
       <c r="B260">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C260">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D260">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G260" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6511,16 +6517,16 @@
         <v>94</v>
       </c>
       <c r="B261">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C261">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D261">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G261" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6528,16 +6534,16 @@
         <v>94</v>
       </c>
       <c r="B262">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C262">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D262">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G262" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6545,16 +6551,16 @@
         <v>94</v>
       </c>
       <c r="B263">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C263">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D263">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G263" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6562,16 +6568,16 @@
         <v>94</v>
       </c>
       <c r="B264">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C264">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D264">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G264" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6579,16 +6585,16 @@
         <v>94</v>
       </c>
       <c r="B265">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C265">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D265">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G265" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6596,16 +6602,16 @@
         <v>94</v>
       </c>
       <c r="B266">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C266">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D266">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G266" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6613,16 +6619,16 @@
         <v>94</v>
       </c>
       <c r="B267">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C267">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D267">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G267" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6630,16 +6636,16 @@
         <v>94</v>
       </c>
       <c r="B268">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C268">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D268">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G268" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6647,16 +6653,16 @@
         <v>94</v>
       </c>
       <c r="B269">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C269">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D269">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G269" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6664,16 +6670,16 @@
         <v>94</v>
       </c>
       <c r="B270">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C270">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D270">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G270" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6681,16 +6687,16 @@
         <v>94</v>
       </c>
       <c r="B271">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C271">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D271">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G271" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6698,16 +6704,16 @@
         <v>94</v>
       </c>
       <c r="B272">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C272">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D272">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G272" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6715,16 +6721,16 @@
         <v>94</v>
       </c>
       <c r="B273">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C273">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D273">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G273" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6732,16 +6738,16 @@
         <v>94</v>
       </c>
       <c r="B274">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C274">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D274">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G274" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6749,16 +6755,16 @@
         <v>94</v>
       </c>
       <c r="B275">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C275">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D275">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G275" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6766,16 +6772,16 @@
         <v>94</v>
       </c>
       <c r="B276">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C276">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D276">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G276" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6783,16 +6789,16 @@
         <v>94</v>
       </c>
       <c r="B277">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C277">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D277">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G277" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6800,16 +6806,16 @@
         <v>94</v>
       </c>
       <c r="B278">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C278">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D278">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G278" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6817,16 +6823,16 @@
         <v>94</v>
       </c>
       <c r="B279">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C279">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D279">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G279" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6834,16 +6840,16 @@
         <v>94</v>
       </c>
       <c r="B280">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C280">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D280">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G280" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6851,16 +6857,16 @@
         <v>94</v>
       </c>
       <c r="B281">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C281">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D281">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G281" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6868,16 +6874,16 @@
         <v>94</v>
       </c>
       <c r="B282">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C282">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D282">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G282" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6885,16 +6891,16 @@
         <v>94</v>
       </c>
       <c r="B283">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C283">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D283">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G283" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6902,16 +6908,16 @@
         <v>94</v>
       </c>
       <c r="B284">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C284">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D284">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G284" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6919,16 +6925,16 @@
         <v>94</v>
       </c>
       <c r="B285">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C285">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D285">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G285" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6936,16 +6942,16 @@
         <v>94</v>
       </c>
       <c r="B286">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C286">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D286">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G286" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6953,16 +6959,16 @@
         <v>94</v>
       </c>
       <c r="B287">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C287">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D287">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G287" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -6970,16 +6976,16 @@
         <v>94</v>
       </c>
       <c r="B288">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C288">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D288">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G288" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -6987,16 +6993,16 @@
         <v>94</v>
       </c>
       <c r="B289">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C289">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D289">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G289" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7004,16 +7010,16 @@
         <v>94</v>
       </c>
       <c r="B290">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C290">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D290">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G290" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7021,16 +7027,16 @@
         <v>94</v>
       </c>
       <c r="B291">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C291">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D291">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G291" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7038,16 +7044,16 @@
         <v>94</v>
       </c>
       <c r="B292">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C292">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D292">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G292" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7055,16 +7061,16 @@
         <v>94</v>
       </c>
       <c r="B293">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C293">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D293">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G293" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7072,16 +7078,16 @@
         <v>94</v>
       </c>
       <c r="B294">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C294">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D294">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G294" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7089,16 +7095,16 @@
         <v>94</v>
       </c>
       <c r="B295">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C295">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D295">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G295" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7106,16 +7112,16 @@
         <v>94</v>
       </c>
       <c r="B296">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C296">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D296">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G296" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7123,16 +7129,16 @@
         <v>94</v>
       </c>
       <c r="B297">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C297">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D297">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G297" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7140,16 +7146,16 @@
         <v>94</v>
       </c>
       <c r="B298">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C298">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D298">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G298" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7157,16 +7163,16 @@
         <v>94</v>
       </c>
       <c r="B299">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C299">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D299">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G299" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7174,16 +7180,16 @@
         <v>94</v>
       </c>
       <c r="B300">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C300">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D300">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G300" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7191,16 +7197,84 @@
         <v>94</v>
       </c>
       <c r="B301">
+        <v>215</v>
+      </c>
+      <c r="C301">
+        <v>215</v>
+      </c>
+      <c r="D301">
+        <v>215</v>
+      </c>
+      <c r="G301" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>94</v>
+      </c>
+      <c r="B302">
+        <v>216</v>
+      </c>
+      <c r="C302">
+        <v>216</v>
+      </c>
+      <c r="D302">
+        <v>216</v>
+      </c>
+      <c r="G302" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>94</v>
+      </c>
+      <c r="B303">
         <v>217</v>
       </c>
-      <c r="C301">
+      <c r="C303">
         <v>217</v>
       </c>
-      <c r="D301">
+      <c r="D303">
         <v>217</v>
       </c>
-      <c r="G301" t="s">
-        <v>254</v>
+      <c r="G303" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>94</v>
+      </c>
+      <c r="B304">
+        <v>217</v>
+      </c>
+      <c r="C304">
+        <v>217</v>
+      </c>
+      <c r="D304">
+        <v>217</v>
+      </c>
+      <c r="G304" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>94</v>
+      </c>
+      <c r="B305">
+        <v>217</v>
+      </c>
+      <c r="C305">
+        <v>217</v>
+      </c>
+      <c r="D305">
+        <v>217</v>
+      </c>
+      <c r="G305" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -7215,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -7238,18 +7312,18 @@
         <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
         <v>299</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>

--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
@@ -8,16 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071F88C-F477-4E8C-86E5-A4C93A5CEF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407978F-E4FD-47E5-9952-804F707F5B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -174,9 +187,6 @@
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) adminstered</t>
   </si>
   <si>
-    <t>concat(${d_recorder_id}, '-', ${d_cluster_id}, '-', ${d_serial_number1})</t>
-  </si>
-  <si>
     <t>select_one results</t>
   </si>
   <si>
@@ -928,6 +938,9 @@
   </si>
   <si>
     <t>Ga Guiro</t>
+  </si>
+  <si>
+    <t>if(${d_Cluster_Name} != 'Other', concat(${d_recorder_id}, '-', ${d_cluster_id}, '-', ${d_serial_number1}), concat(${d_recorder_id}, '-', ${d_cluster_id2}, '-', ${d_serial_number1}))</t>
   </si>
 </sst>
 </file>
@@ -1507,11 +1520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1545,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -1560,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>7</v>
@@ -1592,10 +1605,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="10" t="s">
@@ -1605,7 +1618,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="5"/>
@@ -1627,7 +1640,7 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="5"/>
@@ -1654,7 +1667,7 @@
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="10"/>
@@ -1683,7 +1696,7 @@
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="10"/>
@@ -1712,7 +1725,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="10"/>
@@ -1720,7 +1733,7 @@
       <c r="I6" s="31"/>
       <c r="J6" s="38"/>
       <c r="K6" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
@@ -1736,14 +1749,14 @@
         <v>37</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="10"/>
@@ -1751,7 +1764,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="38"/>
       <c r="K7" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
@@ -1765,14 +1778,14 @@
         <v>37</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="10"/>
@@ -1780,7 +1793,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="38"/>
       <c r="K8" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
@@ -1788,7 +1801,7 @@
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
@@ -1803,7 +1816,7 @@
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="10"/>
@@ -1830,7 +1843,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="5"/>
@@ -1850,14 +1863,14 @@
         <v>34</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="5"/>
@@ -1884,7 +1897,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="5"/>
@@ -1895,10 +1908,10 @@
         <v>43</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30" t="s">
@@ -1919,7 +1932,7 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="5"/>
@@ -1930,10 +1943,10 @@
         <v>47</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30" t="s">
@@ -1942,7 +1955,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="47.25">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="126">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1954,7 +1967,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="5"/>
@@ -1962,10 +1975,10 @@
       <c r="I14" s="25"/>
       <c r="J14" s="39"/>
       <c r="K14" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>18</v>
@@ -1977,17 +1990,17 @@
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1">
       <c r="A15" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>257</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="5"/>
@@ -1995,7 +2008,7 @@
       <c r="I15" s="25"/>
       <c r="J15" s="39"/>
       <c r="K15" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30" t="s">
@@ -2006,17 +2019,17 @@
     </row>
     <row r="16" spans="1:15" s="3" customFormat="1">
       <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="10"/>
@@ -2033,17 +2046,17 @@
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="10"/>
@@ -2051,7 +2064,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="39"/>
       <c r="K17" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="30" t="s">
@@ -2065,14 +2078,14 @@
         <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="10"/>
@@ -2080,7 +2093,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="39"/>
       <c r="K18" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="30" t="s">
@@ -2091,17 +2104,17 @@
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="10"/>
@@ -2116,10 +2129,10 @@
     </row>
     <row r="20" spans="1:15" s="3" customFormat="1">
       <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2137,10 +2150,10 @@
     </row>
     <row r="21" spans="1:15" s="3" customFormat="1">
       <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2158,7 +2171,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="E27" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2171,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD305"/>
     </sheetView>
   </sheetViews>
@@ -2188,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2197,268 +2210,268 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="31.5">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2468,32 +2481,32 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
@@ -2508,2755 +2521,2755 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D117" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D124" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F145" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F147" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F149" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F150" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D151" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D152" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F152" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D153" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F154" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D158" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F162" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F163" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C165" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D165" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C166" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C167" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D167" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D168" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F168" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D169" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F169" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B170" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C170" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D170" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C171" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D171" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F171" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D172" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C173" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C174" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D174" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F174" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C175" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D175" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F175" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C176" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D176" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F176" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D177" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F177" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C178" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D178" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F178" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D179" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B180" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C180" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D180" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F180" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C181" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D181" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F181" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C182" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F182" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C183" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D183" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F183" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C184" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F184" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F185" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B187">
         <v>101</v>
@@ -5268,12 +5281,12 @@
         <v>101</v>
       </c>
       <c r="G187" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B188">
         <v>102</v>
@@ -5285,12 +5298,12 @@
         <v>102</v>
       </c>
       <c r="G188" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B189">
         <v>103</v>
@@ -5302,12 +5315,12 @@
         <v>103</v>
       </c>
       <c r="G189" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B190">
         <v>104</v>
@@ -5319,12 +5332,12 @@
         <v>104</v>
       </c>
       <c r="G190" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B191">
         <v>105</v>
@@ -5336,12 +5349,12 @@
         <v>105</v>
       </c>
       <c r="G191" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B192">
         <v>106</v>
@@ -5353,12 +5366,12 @@
         <v>106</v>
       </c>
       <c r="G192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B193">
         <v>107</v>
@@ -5370,12 +5383,12 @@
         <v>107</v>
       </c>
       <c r="G193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B194">
         <v>108</v>
@@ -5387,12 +5400,12 @@
         <v>108</v>
       </c>
       <c r="G194" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B195">
         <v>109</v>
@@ -5404,12 +5417,12 @@
         <v>109</v>
       </c>
       <c r="G195" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B196">
         <v>110</v>
@@ -5421,12 +5434,12 @@
         <v>110</v>
       </c>
       <c r="G196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B197">
         <v>111</v>
@@ -5438,12 +5451,12 @@
         <v>111</v>
       </c>
       <c r="G197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B198">
         <v>112</v>
@@ -5455,12 +5468,12 @@
         <v>112</v>
       </c>
       <c r="G198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B199">
         <v>113</v>
@@ -5472,12 +5485,12 @@
         <v>113</v>
       </c>
       <c r="G199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B200">
         <v>114</v>
@@ -5489,12 +5502,12 @@
         <v>114</v>
       </c>
       <c r="G200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B201">
         <v>115</v>
@@ -5506,12 +5519,12 @@
         <v>115</v>
       </c>
       <c r="G201" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B202">
         <v>116</v>
@@ -5523,12 +5536,12 @@
         <v>116</v>
       </c>
       <c r="G202" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B203">
         <v>117</v>
@@ -5540,12 +5553,12 @@
         <v>117</v>
       </c>
       <c r="G203" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B204">
         <v>118</v>
@@ -5557,12 +5570,12 @@
         <v>118</v>
       </c>
       <c r="G204" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B205">
         <v>119</v>
@@ -5574,12 +5587,12 @@
         <v>119</v>
       </c>
       <c r="G205" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B206">
         <v>120</v>
@@ -5591,12 +5604,12 @@
         <v>120</v>
       </c>
       <c r="G206" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B207">
         <v>121</v>
@@ -5608,12 +5621,12 @@
         <v>121</v>
       </c>
       <c r="G207" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B208">
         <v>122</v>
@@ -5625,12 +5638,12 @@
         <v>122</v>
       </c>
       <c r="G208" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B209">
         <v>123</v>
@@ -5642,12 +5655,12 @@
         <v>123</v>
       </c>
       <c r="G209" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B210">
         <v>124</v>
@@ -5659,12 +5672,12 @@
         <v>124</v>
       </c>
       <c r="G210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B211">
         <v>125</v>
@@ -5676,12 +5689,12 @@
         <v>125</v>
       </c>
       <c r="G211" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B212">
         <v>126</v>
@@ -5693,12 +5706,12 @@
         <v>126</v>
       </c>
       <c r="G212" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B213">
         <v>127</v>
@@ -5710,12 +5723,12 @@
         <v>127</v>
       </c>
       <c r="G213" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B214">
         <v>128</v>
@@ -5727,12 +5740,12 @@
         <v>128</v>
       </c>
       <c r="G214" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B215">
         <v>129</v>
@@ -5744,12 +5757,12 @@
         <v>129</v>
       </c>
       <c r="G215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B216">
         <v>130</v>
@@ -5761,12 +5774,12 @@
         <v>130</v>
       </c>
       <c r="G216" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B217">
         <v>131</v>
@@ -5778,12 +5791,12 @@
         <v>131</v>
       </c>
       <c r="G217" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B218">
         <v>132</v>
@@ -5795,12 +5808,12 @@
         <v>132</v>
       </c>
       <c r="G218" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B219">
         <v>133</v>
@@ -5812,12 +5825,12 @@
         <v>133</v>
       </c>
       <c r="G219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B220">
         <v>134</v>
@@ -5829,12 +5842,12 @@
         <v>134</v>
       </c>
       <c r="G220" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B221">
         <v>135</v>
@@ -5846,12 +5859,12 @@
         <v>135</v>
       </c>
       <c r="G221" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B222">
         <v>136</v>
@@ -5863,12 +5876,12 @@
         <v>136</v>
       </c>
       <c r="G222" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B223">
         <v>137</v>
@@ -5880,12 +5893,12 @@
         <v>137</v>
       </c>
       <c r="G223" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B224">
         <v>138</v>
@@ -5897,12 +5910,12 @@
         <v>138</v>
       </c>
       <c r="G224" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B225">
         <v>139</v>
@@ -5914,12 +5927,12 @@
         <v>139</v>
       </c>
       <c r="G225" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B226">
         <v>140</v>
@@ -5931,12 +5944,12 @@
         <v>140</v>
       </c>
       <c r="G226" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B227">
         <v>141</v>
@@ -5948,12 +5961,12 @@
         <v>141</v>
       </c>
       <c r="G227" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B228">
         <v>142</v>
@@ -5965,12 +5978,12 @@
         <v>142</v>
       </c>
       <c r="G228" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B229">
         <v>143</v>
@@ -5982,12 +5995,12 @@
         <v>143</v>
       </c>
       <c r="G229" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B230">
         <v>144</v>
@@ -5999,12 +6012,12 @@
         <v>144</v>
       </c>
       <c r="G230" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B231">
         <v>145</v>
@@ -6016,12 +6029,12 @@
         <v>145</v>
       </c>
       <c r="G231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B232">
         <v>146</v>
@@ -6033,12 +6046,12 @@
         <v>146</v>
       </c>
       <c r="G232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B233">
         <v>147</v>
@@ -6050,12 +6063,12 @@
         <v>147</v>
       </c>
       <c r="G233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B234">
         <v>148</v>
@@ -6067,12 +6080,12 @@
         <v>148</v>
       </c>
       <c r="G234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B235">
         <v>149</v>
@@ -6084,12 +6097,12 @@
         <v>149</v>
       </c>
       <c r="G235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B236">
         <v>150</v>
@@ -6101,12 +6114,12 @@
         <v>150</v>
       </c>
       <c r="G236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B237">
         <v>151</v>
@@ -6118,12 +6131,12 @@
         <v>151</v>
       </c>
       <c r="G237" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B238">
         <v>152</v>
@@ -6135,12 +6148,12 @@
         <v>152</v>
       </c>
       <c r="G238" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B239">
         <v>153</v>
@@ -6152,12 +6165,12 @@
         <v>153</v>
       </c>
       <c r="G239" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B240">
         <v>154</v>
@@ -6169,12 +6182,12 @@
         <v>154</v>
       </c>
       <c r="G240" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B241">
         <v>155</v>
@@ -6186,12 +6199,12 @@
         <v>155</v>
       </c>
       <c r="G241" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B242">
         <v>156</v>
@@ -6203,12 +6216,12 @@
         <v>156</v>
       </c>
       <c r="G242" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B243">
         <v>157</v>
@@ -6220,12 +6233,12 @@
         <v>157</v>
       </c>
       <c r="G243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B244">
         <v>158</v>
@@ -6237,12 +6250,12 @@
         <v>158</v>
       </c>
       <c r="G244" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B245">
         <v>159</v>
@@ -6254,12 +6267,12 @@
         <v>159</v>
       </c>
       <c r="G245" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B246">
         <v>160</v>
@@ -6271,12 +6284,12 @@
         <v>160</v>
       </c>
       <c r="G246" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B247">
         <v>161</v>
@@ -6288,12 +6301,12 @@
         <v>161</v>
       </c>
       <c r="G247" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B248">
         <v>162</v>
@@ -6305,12 +6318,12 @@
         <v>162</v>
       </c>
       <c r="G248" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B249">
         <v>163</v>
@@ -6322,12 +6335,12 @@
         <v>163</v>
       </c>
       <c r="G249" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B250">
         <v>164</v>
@@ -6339,12 +6352,12 @@
         <v>164</v>
       </c>
       <c r="G250" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B251">
         <v>165</v>
@@ -6356,12 +6369,12 @@
         <v>165</v>
       </c>
       <c r="G251" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B252">
         <v>166</v>
@@ -6373,12 +6386,12 @@
         <v>166</v>
       </c>
       <c r="G252" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B253">
         <v>167</v>
@@ -6390,12 +6403,12 @@
         <v>167</v>
       </c>
       <c r="G253" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B254">
         <v>168</v>
@@ -6407,12 +6420,12 @@
         <v>168</v>
       </c>
       <c r="G254" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B255">
         <v>169</v>
@@ -6424,12 +6437,12 @@
         <v>169</v>
       </c>
       <c r="G255" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B256">
         <v>170</v>
@@ -6441,12 +6454,12 @@
         <v>170</v>
       </c>
       <c r="G256" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B257">
         <v>171</v>
@@ -6458,12 +6471,12 @@
         <v>171</v>
       </c>
       <c r="G257" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B258">
         <v>172</v>
@@ -6475,12 +6488,12 @@
         <v>172</v>
       </c>
       <c r="G258" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B259">
         <v>173</v>
@@ -6492,12 +6505,12 @@
         <v>173</v>
       </c>
       <c r="G259" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B260">
         <v>174</v>
@@ -6509,12 +6522,12 @@
         <v>174</v>
       </c>
       <c r="G260" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B261">
         <v>175</v>
@@ -6526,12 +6539,12 @@
         <v>175</v>
       </c>
       <c r="G261" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B262">
         <v>176</v>
@@ -6543,12 +6556,12 @@
         <v>176</v>
       </c>
       <c r="G262" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B263">
         <v>177</v>
@@ -6560,12 +6573,12 @@
         <v>177</v>
       </c>
       <c r="G263" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B264">
         <v>178</v>
@@ -6577,12 +6590,12 @@
         <v>178</v>
       </c>
       <c r="G264" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B265">
         <v>179</v>
@@ -6594,12 +6607,12 @@
         <v>179</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B266">
         <v>180</v>
@@ -6611,12 +6624,12 @@
         <v>180</v>
       </c>
       <c r="G266" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B267">
         <v>181</v>
@@ -6628,12 +6641,12 @@
         <v>181</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B268">
         <v>182</v>
@@ -6645,12 +6658,12 @@
         <v>182</v>
       </c>
       <c r="G268" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B269">
         <v>183</v>
@@ -6662,12 +6675,12 @@
         <v>183</v>
       </c>
       <c r="G269" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B270">
         <v>184</v>
@@ -6679,12 +6692,12 @@
         <v>184</v>
       </c>
       <c r="G270" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B271">
         <v>185</v>
@@ -6696,12 +6709,12 @@
         <v>185</v>
       </c>
       <c r="G271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B272">
         <v>186</v>
@@ -6713,12 +6726,12 @@
         <v>186</v>
       </c>
       <c r="G272" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B273">
         <v>187</v>
@@ -6730,12 +6743,12 @@
         <v>187</v>
       </c>
       <c r="G273" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B274">
         <v>188</v>
@@ -6747,12 +6760,12 @@
         <v>188</v>
       </c>
       <c r="G274" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B275">
         <v>189</v>
@@ -6764,12 +6777,12 @@
         <v>189</v>
       </c>
       <c r="G275" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B276">
         <v>190</v>
@@ -6781,12 +6794,12 @@
         <v>190</v>
       </c>
       <c r="G276" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B277">
         <v>191</v>
@@ -6798,12 +6811,12 @@
         <v>191</v>
       </c>
       <c r="G277" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B278">
         <v>192</v>
@@ -6815,12 +6828,12 @@
         <v>192</v>
       </c>
       <c r="G278" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B279">
         <v>193</v>
@@ -6832,12 +6845,12 @@
         <v>193</v>
       </c>
       <c r="G279" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B280">
         <v>194</v>
@@ -6849,12 +6862,12 @@
         <v>194</v>
       </c>
       <c r="G280" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B281">
         <v>195</v>
@@ -6866,12 +6879,12 @@
         <v>195</v>
       </c>
       <c r="G281" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B282">
         <v>196</v>
@@ -6883,12 +6896,12 @@
         <v>196</v>
       </c>
       <c r="G282" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B283">
         <v>197</v>
@@ -6900,12 +6913,12 @@
         <v>197</v>
       </c>
       <c r="G283" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="284" spans="1:7">
       <c r="A284" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B284">
         <v>198</v>
@@ -6917,12 +6930,12 @@
         <v>198</v>
       </c>
       <c r="G284" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B285">
         <v>199</v>
@@ -6934,12 +6947,12 @@
         <v>199</v>
       </c>
       <c r="G285" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="286" spans="1:7">
       <c r="A286" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B286">
         <v>200</v>
@@ -6951,12 +6964,12 @@
         <v>200</v>
       </c>
       <c r="G286" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B287">
         <v>201</v>
@@ -6968,12 +6981,12 @@
         <v>201</v>
       </c>
       <c r="G287" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B288">
         <v>202</v>
@@ -6985,12 +6998,12 @@
         <v>202</v>
       </c>
       <c r="G288" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B289">
         <v>203</v>
@@ -7002,12 +7015,12 @@
         <v>203</v>
       </c>
       <c r="G289" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B290">
         <v>204</v>
@@ -7019,12 +7032,12 @@
         <v>204</v>
       </c>
       <c r="G290" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B291">
         <v>205</v>
@@ -7036,12 +7049,12 @@
         <v>205</v>
       </c>
       <c r="G291" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B292">
         <v>206</v>
@@ -7053,12 +7066,12 @@
         <v>206</v>
       </c>
       <c r="G292" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B293">
         <v>207</v>
@@ -7070,12 +7083,12 @@
         <v>207</v>
       </c>
       <c r="G293" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294" spans="1:7">
       <c r="A294" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B294">
         <v>208</v>
@@ -7087,12 +7100,12 @@
         <v>208</v>
       </c>
       <c r="G294" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B295">
         <v>209</v>
@@ -7104,12 +7117,12 @@
         <v>209</v>
       </c>
       <c r="G295" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B296">
         <v>210</v>
@@ -7121,12 +7134,12 @@
         <v>210</v>
       </c>
       <c r="G296" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B297">
         <v>211</v>
@@ -7138,12 +7151,12 @@
         <v>211</v>
       </c>
       <c r="G297" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B298">
         <v>212</v>
@@ -7155,12 +7168,12 @@
         <v>212</v>
       </c>
       <c r="G298" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B299">
         <v>213</v>
@@ -7172,12 +7185,12 @@
         <v>213</v>
       </c>
       <c r="G299" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B300">
         <v>214</v>
@@ -7189,12 +7202,12 @@
         <v>214</v>
       </c>
       <c r="G300" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B301">
         <v>215</v>
@@ -7206,12 +7219,12 @@
         <v>215</v>
       </c>
       <c r="G301" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B302">
         <v>216</v>
@@ -7223,12 +7236,12 @@
         <v>216</v>
       </c>
       <c r="G302" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B303">
         <v>217</v>
@@ -7240,12 +7253,12 @@
         <v>217</v>
       </c>
       <c r="G303" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B304">
         <v>217</v>
@@ -7257,12 +7270,12 @@
         <v>217</v>
       </c>
       <c r="G304" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B305">
         <v>217</v>
@@ -7274,7 +7287,7 @@
         <v>217</v>
       </c>
       <c r="G305" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7303,27 +7316,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
         <v>298</v>
       </c>
-      <c r="B2" t="s">
-        <v>299</v>
-      </c>
       <c r="C2" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>18</v>

--- a/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
+++ b/ONCHO/Impact Assessments/Guinea Bissau/gw_oncho_202302_prestop_3_rdtov16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Guinea Bissau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407978F-E4FD-47E5-9952-804F707F5B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42A4F14-C97B-432E-A728-6FC374C45E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2184,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD305"/>
     </sheetView>
   </sheetViews>
@@ -2977,13 +2977,13 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="F51" t="s">
         <v>115</v>
@@ -2994,16 +2994,16 @@
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3011,13 +3011,13 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
         <v>123</v>
@@ -3028,13 +3028,13 @@
         <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F54" t="s">
         <v>123</v>
@@ -3045,13 +3045,13 @@
         <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F55" t="s">
         <v>123</v>
@@ -3062,13 +3062,13 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>166</v>
+        <v>253</v>
       </c>
       <c r="F56" t="s">
         <v>123</v>
@@ -3079,16 +3079,16 @@
         <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3096,16 +3096,16 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3113,16 +3113,16 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3130,13 +3130,13 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F60" t="s">
         <v>124</v>
@@ -3147,13 +3147,13 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F61" t="s">
         <v>124</v>
@@ -3164,13 +3164,13 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
         <v>124</v>
@@ -3181,13 +3181,13 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
         <v>124</v>
@@ -3198,13 +3198,13 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="F64" t="s">
         <v>124</v>
@@ -3215,13 +3215,13 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F65" t="s">
         <v>124</v>
@@ -3232,16 +3232,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3249,16 +3249,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3266,16 +3266,16 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3283,16 +3283,16 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3300,13 +3300,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F70" t="s">
         <v>125</v>
@@ -3317,13 +3317,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F71" t="s">
         <v>125</v>
@@ -3334,13 +3334,13 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F72" t="s">
         <v>125</v>
@@ -3351,13 +3351,13 @@
         <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F73" t="s">
         <v>125</v>
@@ -3368,13 +3368,13 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F74" t="s">
         <v>125</v>
@@ -3385,13 +3385,13 @@
         <v>69</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F75" t="s">
         <v>125</v>
@@ -3402,13 +3402,13 @@
         <v>69</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F76" t="s">
         <v>125</v>
@@ -3419,16 +3419,16 @@
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3436,16 +3436,16 @@
         <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3453,16 +3453,16 @@
         <v>69</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3470,16 +3470,16 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3487,16 +3487,16 @@
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3504,16 +3504,16 @@
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3521,16 +3521,16 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3538,13 +3538,13 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D84" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
         <v>126</v>
@@ -3555,13 +3555,13 @@
         <v>69</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F85" t="s">
         <v>126</v>
@@ -3572,13 +3572,13 @@
         <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
         <v>126</v>
@@ -3589,13 +3589,13 @@
         <v>69</v>
       </c>
       <c r="B87" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F87" t="s">
         <v>126</v>
@@ -3606,13 +3606,13 @@
         <v>69</v>
       </c>
       <c r="B88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F88" t="s">
         <v>126</v>
@@ -3623,16 +3623,16 @@
         <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3640,16 +3640,16 @@
         <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3657,16 +3657,16 @@
         <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3674,16 +3674,16 @@
         <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3691,16 +3691,16 @@
         <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3708,16 +3708,16 @@
         <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="D94" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3725,16 +3725,16 @@
         <v>69</v>
       </c>
       <c r="B95" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3742,16 +3742,16 @@
         <v>69</v>
       </c>
       <c r="B96" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="D96" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3759,16 +3759,16 @@
         <v>69</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3776,16 +3776,16 @@
         <v>69</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3793,16 +3793,16 @@
         <v>69</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3810,16 +3810,16 @@
         <v>69</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="F100" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3827,16 +3827,16 @@
         <v>69</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="C101" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3844,16 +3844,16 @@
         <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D102" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3861,16 +3861,16 @@
         <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="D103" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3878,16 +3878,16 @@
         <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3895,16 +3895,16 @@
         <v>69</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3912,16 +3912,16 @@
         <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D106" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3929,13 +3929,13 @@
         <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C107" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D107" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
         <v>128</v>
@@ -3946,13 +3946,13 @@
         <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
         <v>128</v>
@@ -3963,13 +3963,13 @@
         <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
         <v>128</v>
@@ -3980,13 +3980,13 @@
         <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
         <v>128</v>
@@ -3997,13 +3997,13 @@
         <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D111" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
         <v>128</v>
@@ -4014,16 +4014,16 @@
         <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4031,16 +4031,16 @@
         <v>69</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4048,16 +4048,16 @@
         <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D114" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4065,16 +4065,16 @@
         <v>69</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4082,16 +4082,16 @@
         <v>69</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D116" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4099,16 +4099,16 @@
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="D117" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4116,16 +4116,16 @@
         <v>69</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="F118" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4133,16 +4133,16 @@
         <v>69</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="F119" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4150,16 +4150,16 @@
         <v>69</v>
       </c>
       <c r="B120" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F120" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4167,16 +4167,16 @@
         <v>69</v>
       </c>
       <c r="B121" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F121" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4184,16 +4184,16 @@
         <v>69</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F122" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4201,16 +4201,16 @@
         <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F123" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4218,16 +4218,16 @@
         <v>69</v>
       </c>
       <c r="B124" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4235,16 +4235,16 @@
         <v>69</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="D125" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F125" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4252,16 +4252,16 @@
         <v>69</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="C126" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4269,16 +4269,16 @@
         <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D127" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="F127" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4286,16 +4286,16 @@
         <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D128" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4303,16 +4303,16 @@
         <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D129" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4320,16 +4320,16 @@
         <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C130" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4337,16 +4337,16 @@
         <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D131" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4354,16 +4354,16 @@
         <v>69</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="C132" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="D132" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4371,16 +4371,16 @@
         <v>69</v>
       </c>
       <c r="B133" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D133" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F133" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4388,16 +4388,16 @@
         <v>69</v>
       </c>
       <c r="B134" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C134" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D134" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F134" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4405,16 +4405,16 @@
         <v>69</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D135" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F135" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4422,16 +4422,16 @@
         <v>69</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D136" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F136" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4439,16 +4439,16 @@
         <v>69</v>
       </c>
       <c r="B137" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="C137" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="F137" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4456,16 +4456,16 @@
         <v>69</v>
       </c>
       <c r="B138" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="C138" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="D138" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F138" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4473,16 +4473,16 @@
         <v>69</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C139" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D139" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F139" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4490,16 +4490,16 @@
         <v>69</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>91</v>
       </c>
       <c r="D140" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="F140" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4507,16 +4507,16 @@
         <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D141" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F141" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4524,16 +4524,16 @@
         <v>69</v>
       </c>
       <c r="B142" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C142" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D142" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F142" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4541,16 +4541,16 @@
         <v>69</v>
       </c>
       <c r="B143" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C143" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="D143" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="F143" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4558,16 +4558,16 @@
         <v>69</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="C144" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="D144" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="F144" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4575,16 +4575,16 @@
         <v>69</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="D145" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="F145" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4592,16 +4592,16 @@
         <v>69</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C146" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D146" t="s">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="F146" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4609,16 +4609,16 @@
         <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="D147" t="s">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="F147" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4626,16 +4626,16 @@
         <v>69</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="D148" t="s">
-        <v>154</v>
+        <v>234</v>
       </c>
       <c r="F148" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4643,16 +4643,16 @@
         <v>69</v>
       </c>
       <c r="B149" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4660,16 +4660,16 @@
         <v>69</v>
       </c>
       <c r="B150" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D150" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4677,16 +4677,16 @@
         <v>69</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="C151" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="D151" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="F151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4694,16 +4694,16 @@
         <v>69</v>
       </c>
       <c r="B152" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C152" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D152" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4711,16 +4711,16 @@
         <v>69</v>
       </c>
       <c r="B153" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D153" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4728,16 +4728,16 @@
         <v>69</v>
       </c>
       <c r="B154" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C154" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D154" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4745,16 +4745,16 @@
         <v>69</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="C155" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="D155" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="F155" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4762,16 +4762,16 @@
         <v>69</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D156" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F156" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4779,16 +4779,16 @@
         <v>69</v>
       </c>
       <c r="B157" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="C157" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F157" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4796,16 +4796,16 @@
         <v>69</v>
       </c>
       <c r="B158" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D158" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F158" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4813,16 +4813,16 @@
         <v>69</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="C159" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="D159" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="F159" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4830,16 +4830,16 @@
         <v>69</v>
       </c>
       <c r="B160" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C160" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F160" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4847,16 +4847,16 @@
         <v>69</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F161" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4864,16 +4864,16 @@
         <v>69</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="C162" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D162" t="s">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="F162" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4881,16 +4881,16 @@
         <v>69</v>
       </c>
       <c r="B163" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D163" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F163" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4898,16 +4898,16 @@
         <v>69</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D164" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F164" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4915,16 +4915,16 @@
         <v>69</v>
       </c>
       <c r="B165" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="C165" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D165" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F165" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4932,16 +4932,16 @@
         <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="C166" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="D166" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F166" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4949,16 +4949,16 @@
         <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="D167" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F167" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4966,16 +4966,16 @@
         <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="C168" t="s">
-        <v>91</v>
+        <v>300</v>
       </c>
       <c r="D168" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="F168" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4983,16 +4983,16 @@
         <v>69</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="C169" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="D169" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F169" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5009,7 +5009,7 @@
         <v>253</v>
       </c>
       <c r="F170" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5017,16 +5017,16 @@
         <v>69</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="C171" t="s">
-        <v>91</v>
+        <v>248</v>
       </c>
       <c r="D171" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F171" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5034,16 +5034,16 @@
         <v>69</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="D172" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F172" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5051,16 +5051,16 @@
         <v>69</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C173" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="D173" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="F173" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5077,7 +5077,7 @@
         <v>253</v>
       </c>
       <c r="F174" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5085,16 +5085,16 @@
         <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C175" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="D175" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F175" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5102,16 +5102,16 @@
         <v>69</v>
       </c>
       <c r="B176" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F176" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5128,7 +5128,7 @@
         <v>253</v>
       </c>
       <c r="F177" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5136,16 +5136,16 @@
         <v>69</v>
       </c>
       <c r="B178" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="C178" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="D178" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F178" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5153,16 +5153,16 @@
         <v>69</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C179" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D179" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="F179" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5170,16 +5170,16 @@
         <v>69</v>
       </c>
       <c r="B180" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C180" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="D180" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="F180" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5187,16 +5187,16 @@
         <v>69</v>
       </c>
       <c r="B181" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C181" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="F181" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5204,16 +5204,16 @@
         <v>69</v>
       </c>
       <c r="B182" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="C182" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D182" t="s">
-        <v>253</v>
+        <v>159</v>
       </c>
       <c r="F182" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5221,16 +5221,16 @@
         <v>69</v>
       </c>
       <c r="B183" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C183" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D183" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="F183" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5247,7 +5247,7 @@
         <v>253</v>
       </c>
       <c r="F184" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5255,16 +5255,16 @@
         <v>69</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="C185" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D185" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="F185" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:7">
